--- a/Temp_Amp_01/Release/BOM/Bill of Materials-TEMP_SENS_1.xlsx
+++ b/Temp_Amp_01/Release/BOM/Bill of Materials-TEMP_SENS_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Description</t>
   </si>
@@ -36,7 +36,7 @@
     <t>CAP CER 0.1UF 16V X7R 0603</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C1, C4</t>
   </si>
   <si>
     <t>C0603C104M4RACTU</t>
@@ -51,15 +51,6 @@
     <t>C0603C105K4RACTU</t>
   </si>
   <si>
-    <t>CAP CER 0.068UF 16V X7R 0603</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB683</t>
-  </si>
-  <si>
     <t>THERMOPILE IR SENSOR with thermistor</t>
   </si>
   <si>
@@ -72,12 +63,6 @@
     <t>JP1</t>
   </si>
   <si>
-    <t>Single layer pad TP</t>
-  </si>
-  <si>
-    <t>JP2 Vref, JP3 Vout</t>
-  </si>
-  <si>
     <t>Mounting hole, 4.2mm</t>
   </si>
   <si>
@@ -105,13 +90,10 @@
     <t>CRCW06031K00FKEA</t>
   </si>
   <si>
-    <t>RES SMD 49.9K OHM 1% 1/10W 0603</t>
+    <t>RES SMD 200K OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>R4</t>
-  </si>
-  <si>
-    <t>RC0603FR-0749K9L</t>
   </si>
   <si>
     <t>RES SMD 75K OHM 1% 1/8W 0603</t>
@@ -464,7 +446,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -498,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>7</v>
@@ -528,16 +510,14 @@
       <c r="C4" s="50">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="50">
         <v>1</v>
@@ -546,51 +526,53 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="C9" s="50">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="50">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="48" t="s">
@@ -614,47 +596,19 @@
       <c r="C11" s="50">
         <v>1</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>28</v>
-      </c>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="50">
         <v>1</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="50">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="50">
-        <v>1</v>
-      </c>
-      <c r="D14" s="49"/>
+      <c r="D12" s="49"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Temp_Amp_01/Release/BOM/Bill of Materials-TEMP_SENS_1.xlsx
+++ b/Temp_Amp_01/Release/BOM/Bill of Materials-TEMP_SENS_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Description</t>
   </si>
@@ -57,10 +57,16 @@
     <t>IR1</t>
   </si>
   <si>
-    <t>CONN HEADER R/A 3POS 1.25MM</t>
+    <t>CONN HEADER VERT 3POS 2.54MM</t>
   </si>
   <si>
     <t>JP1</t>
+  </si>
+  <si>
+    <t>Single layer pad TP</t>
+  </si>
+  <si>
+    <t>JP2, JP3</t>
   </si>
   <si>
     <t>Mounting hole, 4.2mm</t>
@@ -446,7 +452,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -544,7 +550,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="49"/>
     </row>
@@ -570,21 +576,21 @@
       <c r="C9" s="50">
         <v>1</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="C10" s="50">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="50">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="48" t="s">
@@ -609,6 +615,18 @@
         <v>1</v>
       </c>
       <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="50">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Temp_Amp_01/Release/BOM/Bill of Materials-TEMP_SENS_1.xlsx
+++ b/Temp_Amp_01/Release/BOM/Bill of Materials-TEMP_SENS_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -57,6 +57,9 @@
     <t>IR1</t>
   </si>
   <si>
+    <t>ZTP-148SRC1</t>
+  </si>
+  <si>
     <t>CONN HEADER VERT 3POS 2.54MM</t>
   </si>
   <si>
@@ -75,18 +78,24 @@
     <t>MH1, MH2</t>
   </si>
   <si>
-    <t>RES 750K OHM 1% 1/10W 0603</t>
+    <t>RES SMD 750K OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
+    <t>RMCF0603FT750K</t>
+  </si>
+  <si>
     <t>RES 100 OHM 1% 1/8W 0603</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
+    <t>RNCP0603FTD100R</t>
+  </si>
+  <si>
     <t>RES SMD 1K OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -96,23 +105,31 @@
     <t>CRCW06031K00FKEA</t>
   </si>
   <si>
-    <t>RES SMD 200K OHM 1% 1/10W 0603</t>
+    <t>YAGEO - RC0603FR-07200KL - SMD Chip Resistor, 0603 [1608 Metric], 200 kohm, RC Series, 75 V, Thick Film, 100 mW</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>RES SMD 75K OHM 1% 1/8W 0603</t>
+    <t>RC0603FR-07200KL</t>
+  </si>
+  <si>
+    <t>75 kohm, 75 V, 0603 [1608 Metric], 100 mW,  1%</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t xml:space="preserve">3 2-μV VOS, 0.02-μV/°C, 17-μA, CMOS Operational Amplifiers
-Zero-Drift </t>
+    <t>MCT06030C7502FP500</t>
+  </si>
+  <si>
+    <t>IC OP AMP ZERO-DRIFT CMOS 8SOIC</t>
   </si>
   <si>
     <t>U1</t>
+  </si>
+  <si>
+    <t>TLV2333IDR</t>
   </si>
 </sst>
 </file>
@@ -345,93 +362,81 @@
   <cellXfs>
     <xf xxid="15" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf xxid="21" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf xxid="22" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="23" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
+    <xf xxid="22" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
+    <xf xxid="23" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
     <xf xxid="24" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
-    <xf xxid="25" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
+    <xf xxid="25" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
     <xf xxid="26" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
-    <xf xxid="27" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
+    <xf xxid="27" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
     <xf xxid="28" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
-    <xf xxid="29" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
+    <xf xxid="29" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
     <xf xxid="30" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
-    <xf xxid="31" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
+    <xf xxid="31" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
     <xf xxid="32" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
-    <xf xxid="33" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
-    <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="35" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="50" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="51" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="52" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="55" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="56" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="57" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="58" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="59" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="60" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="63" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="64" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="67" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="68" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="69" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="70" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="33" numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="52" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="58" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="60" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,168 +470,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="43">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="46">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="50">
-        <v>1</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="B5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="46">
+        <v>1</v>
+      </c>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="50">
+      <c r="B6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="46">
         <v>2</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50">
+      <c r="B7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="46">
         <v>2</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="50">
-        <v>1</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="B8" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="50">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49"/>
+      <c r="A9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="46">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="50">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>25</v>
+      <c r="A10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="46">
+        <v>1</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="50">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49"/>
+      <c r="A11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="50">
-        <v>1</v>
-      </c>
-      <c r="D12" s="49"/>
+      <c r="A12" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="46">
+        <v>1</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="50">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49"/>
+      <c r="A13" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
